--- a/DEWSapp/dewsdocs/DATAspeiSynoptic2.xlsx
+++ b/DEWSapp/dewsdocs/DATAspeiSynoptic2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="990" yWindow="1545"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9810" windowWidth="11085" xWindow="810" yWindow="375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -426,8 +426,8 @@
   </sheetPr>
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2098,7 +2098,7 @@
         <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>0.2065919311477027</v>
+        <v>0.18</v>
       </c>
       <c r="C41" t="n">
         <v>0.349839117600824</v>
@@ -2261,40 +2261,328 @@
       <c r="A45" t="n">
         <v>2024</v>
       </c>
+      <c r="B45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.307824758401173</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.596695921675624</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.958588201404299</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.00532568895674</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.02520517934496</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.391260044461975</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-1.22978508631055</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1.53227452213227</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-1.24150500051762</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.908332523863365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0116627914529439</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>2025</v>
       </c>
+      <c r="B46" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.207824758401173</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.531695921675624</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.858588201404299</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.475325688956742</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.06020517934496</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.756260044461975</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.12478508631055</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.42227452213227</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.98650500051762</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.998332523863365</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0266627914529439</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2026</v>
       </c>
+      <c r="B47" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.151172185921525</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.478704698178311</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.784164661825589</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.216923395643762</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.16876673314845</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.06563805780057</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.04872061220372</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.35895687877195</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.852956500672906</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.09983228102238</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.0281616288888271</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>2027</v>
       </c>
+      <c r="B48" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.0945196134418764</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.425713474680998</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.709741122246878</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.041478897669218</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.27732828695194</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1.37501607113916</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.97265613809688</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-1.29563923541163</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.719408000828192</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-1.20133203818138</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0296604663247102</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>2028</v>
       </c>
+      <c r="B49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.195375948712214</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.535043793065319</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.92648078703688</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.650110593846948</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.03613383895816</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.577056688746468</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-1.2350670615452</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1.55628103157686</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-1.13518804312289</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-1.05435373404633</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.0214371540616322</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>2029</v>
       </c>
+      <c r="B50" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.180862941967924</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.514495742458067</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.911589780381528</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.624084224744198</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.08577169246656</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6535253115715079</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-1.22918382162752</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-1.5650264081663</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-1.13718050734608</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-1.11135516112196</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.0165604531456895</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>2030</v>
       </c>
+      <c r="B51" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.166349935223635</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.493947691850815</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.896698773726177</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.598057855641448</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.13540954597497</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.729993934396548</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-1.22330058170983</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1.57377178475574</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-1.13917297156926</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-1.16835658819759</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.0116837522297475</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>2031</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0915553374052233</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.151836928479345</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.473399641243563</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.881807767070825</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.572031486538699</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.18504739948338</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.806462557221588</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-1.21741734179214</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-1.58251716134518</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1.14116543579244</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-1.22535801527322</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.0068070513138045</v>
       </c>
     </row>
     <row r="53">
